--- a/BOM of SpaceKat Pro Accessories 0509.xlsx
+++ b/BOM of SpaceKat Pro Accessories 0509.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeng_\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE6728-B349-4330-87E0-F63DA2B6FC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9864AF-88FF-4305-8367-E009C62EC5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>主控</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +400,24 @@
   <si>
     <t>3块钱100个，包邮</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P 1.25连接器 弯针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3块钱30个，包邮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?_u=acd2le8a95&amp;id=678926000000&amp;skuId=4870815285612</t>
+  </si>
+  <si>
+    <t>A7二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=622069331561&amp;skuId=4566605859653</t>
   </si>
 </sst>
 </file>
@@ -951,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C185C5A3-565B-4043-A9AC-7A4F6F64EB60}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1186,137 +1205,145 @@
     </row>
     <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="4">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>73</v>
-      </c>
+    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4">
         <v>31</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>0.3</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.15</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1325,47 +1352,39 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C26" s="4">
         <v>0.3</v>
@@ -1373,133 +1392,133 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>47</v>
+      <c r="F26" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C27" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D27" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C28" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>84</v>
+      <c r="E28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="D33" s="4">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4">
         <v>0.05</v>
@@ -1511,14 +1530,14 @@
         <v>35</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4">
         <v>0.05</v>
@@ -1527,211 +1546,249 @@
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C36" s="4">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D36" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D37" s="4">
         <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D38" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="D39" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D40" s="4">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="5"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
+      <c r="A43" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F47" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D48" s="4">
         <v>1</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="14"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G2:G46"/>
-    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G2:G48"/>
+    <mergeCell ref="F47:F48"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{1099ED6A-2DDF-412D-B20B-2D866AFA56E7}"/>
     <hyperlink ref="F10" r:id="rId2" xr:uid="{6A122FCA-1989-4520-BEA8-27180D5CB44A}"/>
-    <hyperlink ref="F24" r:id="rId3" xr:uid="{D90B551E-81EE-44D8-ACFC-BD1CEEB889A8}"/>
-    <hyperlink ref="F32" r:id="rId4" xr:uid="{7E81BC59-DD61-4FC8-AA0B-CB7FF30F34C9}"/>
-    <hyperlink ref="F33" r:id="rId5" xr:uid="{C0A63030-4571-4DC0-ACA3-BB5A65A5F194}"/>
-    <hyperlink ref="F20" r:id="rId6" xr:uid="{59B98ADF-7698-4F35-B439-4BA132362FE7}"/>
-    <hyperlink ref="F21" r:id="rId7" xr:uid="{3246782D-B9E2-40F2-90E4-1D4F0BE21EF7}"/>
-    <hyperlink ref="F35" r:id="rId8" xr:uid="{CFD4206B-35F3-41E8-B480-0079DCE3931A}"/>
-    <hyperlink ref="F36" r:id="rId9" xr:uid="{F02912DF-B62A-42C0-9A92-FA877B6BFEB4}"/>
-    <hyperlink ref="F37" r:id="rId10" xr:uid="{730B5C75-39B1-4095-910A-AE97327B4F1F}"/>
-    <hyperlink ref="F26" r:id="rId11" xr:uid="{5BBD81D2-4211-4D31-A9F5-6705C091BBA3}"/>
-    <hyperlink ref="F39" r:id="rId12" xr:uid="{9CCDAFAA-0182-4358-8B51-BE4B3E14D784}"/>
+    <hyperlink ref="F25" r:id="rId3" xr:uid="{D90B551E-81EE-44D8-ACFC-BD1CEEB889A8}"/>
+    <hyperlink ref="F34" r:id="rId4" xr:uid="{7E81BC59-DD61-4FC8-AA0B-CB7FF30F34C9}"/>
+    <hyperlink ref="F35" r:id="rId5" xr:uid="{C0A63030-4571-4DC0-ACA3-BB5A65A5F194}"/>
+    <hyperlink ref="F21" r:id="rId6" xr:uid="{59B98ADF-7698-4F35-B439-4BA132362FE7}"/>
+    <hyperlink ref="F22" r:id="rId7" xr:uid="{3246782D-B9E2-40F2-90E4-1D4F0BE21EF7}"/>
+    <hyperlink ref="F37" r:id="rId8" xr:uid="{CFD4206B-35F3-41E8-B480-0079DCE3931A}"/>
+    <hyperlink ref="F38" r:id="rId9" xr:uid="{F02912DF-B62A-42C0-9A92-FA877B6BFEB4}"/>
+    <hyperlink ref="F39" r:id="rId10" xr:uid="{730B5C75-39B1-4095-910A-AE97327B4F1F}"/>
+    <hyperlink ref="F27" r:id="rId11" xr:uid="{5BBD81D2-4211-4D31-A9F5-6705C091BBA3}"/>
+    <hyperlink ref="F41" r:id="rId12" xr:uid="{9CCDAFAA-0182-4358-8B51-BE4B3E14D784}"/>
     <hyperlink ref="F8" r:id="rId13" xr:uid="{52F87F3F-E785-44EB-8058-8D6D66EC1101}"/>
-    <hyperlink ref="F25" r:id="rId14" xr:uid="{F697BC4A-384A-4958-9D8D-65A0EE8778BA}"/>
+    <hyperlink ref="F26" r:id="rId14" xr:uid="{F697BC4A-384A-4958-9D8D-65A0EE8778BA}"/>
     <hyperlink ref="F11" r:id="rId15" xr:uid="{BC810B50-9670-4EF5-8739-04D36864DED2}"/>
-    <hyperlink ref="F16" r:id="rId16" xr:uid="{1327B1A1-6494-48F9-92BB-D8B05D209215}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{B9A43437-86BB-4D89-BF17-57D4867634A4}"/>
-    <hyperlink ref="F28" r:id="rId18" xr:uid="{791EDD6F-678B-4FE8-B287-C4B780ED4CDD}"/>
-    <hyperlink ref="F29" r:id="rId19" xr:uid="{405E930E-7412-4189-9D9C-0F5991FBD7FE}"/>
-    <hyperlink ref="F27" r:id="rId20" xr:uid="{D1AF19C1-0F4C-4B07-8F0E-A39ADA19B6EE}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{1327B1A1-6494-48F9-92BB-D8B05D209215}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{B9A43437-86BB-4D89-BF17-57D4867634A4}"/>
+    <hyperlink ref="F30" r:id="rId18" xr:uid="{791EDD6F-678B-4FE8-B287-C4B780ED4CDD}"/>
+    <hyperlink ref="F31" r:id="rId19" xr:uid="{405E930E-7412-4189-9D9C-0F5991FBD7FE}"/>
+    <hyperlink ref="F29" r:id="rId20" xr:uid="{D1AF19C1-0F4C-4B07-8F0E-A39ADA19B6EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM of SpaceKat Pro Accessories 0509.xlsx
+++ b/BOM of SpaceKat Pro Accessories 0509.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeng_\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9864AF-88FF-4305-8367-E009C62EC5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A576A3-293D-4E85-8D80-F68874476AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -973,7 +972,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1428,7 +1427,7 @@
         <v>0.3</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>93</v>
